--- a/Results/results_task4.xlsx
+++ b/Results/results_task4.xlsx
@@ -1,3 +1,34 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arbeit\Papiere\paper_req_classification\Datasets\Promise_relabeled\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521D3DE2-7890-4249-B2D9-114CE07EB4C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-18120" yWindow="-5460" windowWidth="18240" windowHeight="28440" xr2:uid="{EAA1F360-018B-4C01-84E1-44DDC1521104}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
+</workbook>
+</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="23">
@@ -425,4 +456,1547 @@
     </a:ext>
   </a:extLst>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABB2A89-5550-4106-AF63-C8C8FC55BBED}">
+  <dimension ref="A1:S29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>904727489</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>0.89</v>
+      </c>
+      <c r="I3">
+        <v>0.83</v>
+      </c>
+      <c r="J3">
+        <v>0.86</v>
+      </c>
+      <c r="K3">
+        <v>0.91</v>
+      </c>
+      <c r="L3">
+        <v>0.93</v>
+      </c>
+      <c r="M3">
+        <v>0.92</v>
+      </c>
+      <c r="N3">
+        <v>0.85</v>
+      </c>
+      <c r="O3">
+        <v>0.86</v>
+      </c>
+      <c r="P3">
+        <v>0.85</v>
+      </c>
+      <c r="Q3">
+        <v>0.79</v>
+      </c>
+      <c r="R3">
+        <v>0.95</v>
+      </c>
+      <c r="S3">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>42</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>0.86</v>
+      </c>
+      <c r="I4">
+        <v>0.88</v>
+      </c>
+      <c r="J4">
+        <v>0.87</v>
+      </c>
+      <c r="K4">
+        <v>0.9</v>
+      </c>
+      <c r="L4">
+        <v>0.96</v>
+      </c>
+      <c r="M4">
+        <v>0.93</v>
+      </c>
+      <c r="N4">
+        <v>0.89</v>
+      </c>
+      <c r="O4">
+        <v>0.98</v>
+      </c>
+      <c r="P4">
+        <v>0.93</v>
+      </c>
+      <c r="Q4">
+        <v>0.87</v>
+      </c>
+      <c r="R4">
+        <v>0.93</v>
+      </c>
+      <c r="S4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>42</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>0.96</v>
+      </c>
+      <c r="I5">
+        <v>0.9</v>
+      </c>
+      <c r="J5">
+        <v>0.93</v>
+      </c>
+      <c r="K5">
+        <v>0.92</v>
+      </c>
+      <c r="L5">
+        <v>0.99</v>
+      </c>
+      <c r="M5">
+        <v>0.95</v>
+      </c>
+      <c r="N5">
+        <v>0.93</v>
+      </c>
+      <c r="O5">
+        <v>0.86</v>
+      </c>
+      <c r="P5">
+        <v>0.89</v>
+      </c>
+      <c r="Q5">
+        <v>0.89</v>
+      </c>
+      <c r="R5">
+        <v>0.83</v>
+      </c>
+      <c r="S5">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>42</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>0.86</v>
+      </c>
+      <c r="I6">
+        <v>0.88</v>
+      </c>
+      <c r="J6">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>42</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>0.92</v>
+      </c>
+      <c r="I7">
+        <v>0.88</v>
+      </c>
+      <c r="J7">
+        <v>0.9</v>
+      </c>
+      <c r="K7">
+        <v>0.91</v>
+      </c>
+      <c r="L7">
+        <v>0.99</v>
+      </c>
+      <c r="M7">
+        <v>0.95</v>
+      </c>
+      <c r="N7">
+        <v>0.92</v>
+      </c>
+      <c r="O7">
+        <v>0.93</v>
+      </c>
+      <c r="P7">
+        <v>0.92</v>
+      </c>
+      <c r="Q7">
+        <v>0.82</v>
+      </c>
+      <c r="R7">
+        <v>0.87</v>
+      </c>
+      <c r="S7">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>42</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <v>0.87</v>
+      </c>
+      <c r="I8">
+        <v>0.87</v>
+      </c>
+      <c r="J8">
+        <v>0.87</v>
+      </c>
+      <c r="N8">
+        <v>0.83</v>
+      </c>
+      <c r="O8">
+        <v>0.84</v>
+      </c>
+      <c r="P8">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>42</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9">
+        <v>0.83</v>
+      </c>
+      <c r="O9">
+        <v>0.84</v>
+      </c>
+      <c r="P9">
+        <v>0.84</v>
+      </c>
+      <c r="Q9">
+        <v>0.85</v>
+      </c>
+      <c r="R9">
+        <v>0.91</v>
+      </c>
+      <c r="S9">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>904727489</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10">
+        <v>0.91</v>
+      </c>
+      <c r="O10">
+        <v>0.84</v>
+      </c>
+      <c r="P10">
+        <v>0.88</v>
+      </c>
+      <c r="Q10">
+        <v>0.79</v>
+      </c>
+      <c r="R10">
+        <v>0.95</v>
+      </c>
+      <c r="S10">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>904727489</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>0.87</v>
+      </c>
+      <c r="I11">
+        <v>0.85</v>
+      </c>
+      <c r="J11">
+        <v>0.86</v>
+      </c>
+      <c r="K11">
+        <v>0.91</v>
+      </c>
+      <c r="L11">
+        <v>0.95</v>
+      </c>
+      <c r="M11">
+        <v>0.93</v>
+      </c>
+      <c r="N11">
+        <v>0.91</v>
+      </c>
+      <c r="O11">
+        <v>0.87</v>
+      </c>
+      <c r="P11">
+        <v>0.89</v>
+      </c>
+      <c r="Q11">
+        <v>0.85</v>
+      </c>
+      <c r="R11">
+        <v>0.9</v>
+      </c>
+      <c r="S11">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>904727489</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <v>0.85</v>
+      </c>
+      <c r="I12">
+        <v>0.86</v>
+      </c>
+      <c r="J12">
+        <v>0.86</v>
+      </c>
+      <c r="K12">
+        <v>0.93</v>
+      </c>
+      <c r="L12">
+        <v>0.96</v>
+      </c>
+      <c r="M12">
+        <v>0.94</v>
+      </c>
+      <c r="N12">
+        <v>0.88</v>
+      </c>
+      <c r="O12">
+        <v>0.87</v>
+      </c>
+      <c r="P12">
+        <v>0.88</v>
+      </c>
+      <c r="Q12">
+        <v>0.85</v>
+      </c>
+      <c r="R12">
+        <v>0.89</v>
+      </c>
+      <c r="S12">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>42</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <v>0.87</v>
+      </c>
+      <c r="I13">
+        <v>0.84</v>
+      </c>
+      <c r="J13">
+        <v>0.86</v>
+      </c>
+      <c r="K13">
+        <v>0.92</v>
+      </c>
+      <c r="L13">
+        <v>0.97</v>
+      </c>
+      <c r="M13">
+        <v>0.94</v>
+      </c>
+      <c r="N13">
+        <v>0.92</v>
+      </c>
+      <c r="O13">
+        <v>0.89</v>
+      </c>
+      <c r="P13">
+        <v>0.91</v>
+      </c>
+      <c r="Q13">
+        <v>0.85</v>
+      </c>
+      <c r="R13">
+        <v>0.85</v>
+      </c>
+      <c r="S13">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>42</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>0.89</v>
+      </c>
+      <c r="I14">
+        <v>0.86</v>
+      </c>
+      <c r="J14">
+        <v>0.88</v>
+      </c>
+      <c r="K14">
+        <v>0.91</v>
+      </c>
+      <c r="L14">
+        <v>0.96</v>
+      </c>
+      <c r="M14">
+        <v>0.94</v>
+      </c>
+      <c r="N14">
+        <v>0.91</v>
+      </c>
+      <c r="O14">
+        <v>0.86</v>
+      </c>
+      <c r="P14">
+        <v>0.88</v>
+      </c>
+      <c r="Q14">
+        <v>0.87</v>
+      </c>
+      <c r="R14">
+        <v>0.85</v>
+      </c>
+      <c r="S14">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>42</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <v>0.86</v>
+      </c>
+      <c r="I15">
+        <v>0.84</v>
+      </c>
+      <c r="J15">
+        <v>0.85</v>
+      </c>
+      <c r="K15">
+        <v>0.91</v>
+      </c>
+      <c r="L15">
+        <v>0.96</v>
+      </c>
+      <c r="M15">
+        <v>0.93</v>
+      </c>
+      <c r="N15">
+        <v>0.9</v>
+      </c>
+      <c r="O15">
+        <v>0.88</v>
+      </c>
+      <c r="P15">
+        <v>0.89</v>
+      </c>
+      <c r="Q15">
+        <v>0.83</v>
+      </c>
+      <c r="R15">
+        <v>0.88</v>
+      </c>
+      <c r="S15">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>42</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>0.86</v>
+      </c>
+      <c r="I16">
+        <v>0.86</v>
+      </c>
+      <c r="J16">
+        <v>0.86</v>
+      </c>
+      <c r="K16">
+        <v>0.92</v>
+      </c>
+      <c r="L16">
+        <v>0.95</v>
+      </c>
+      <c r="M16">
+        <v>0.94</v>
+      </c>
+      <c r="N16">
+        <v>0.9</v>
+      </c>
+      <c r="O16">
+        <v>0.9</v>
+      </c>
+      <c r="P16">
+        <v>0.9</v>
+      </c>
+      <c r="Q16">
+        <v>0.83</v>
+      </c>
+      <c r="R16">
+        <v>0.75</v>
+      </c>
+      <c r="S16">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>42</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17">
+        <v>0.91</v>
+      </c>
+      <c r="O17">
+        <v>0.88</v>
+      </c>
+      <c r="P17">
+        <v>0.89</v>
+      </c>
+      <c r="Q17">
+        <v>0.84</v>
+      </c>
+      <c r="R17">
+        <v>0.87</v>
+      </c>
+      <c r="S17">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>42</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18">
+        <v>0.91</v>
+      </c>
+      <c r="O18">
+        <v>0.87</v>
+      </c>
+      <c r="P18">
+        <v>0.89</v>
+      </c>
+      <c r="Q18">
+        <v>0.84</v>
+      </c>
+      <c r="R18">
+        <v>0.86</v>
+      </c>
+      <c r="S18">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>904727489</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <v>0.85</v>
+      </c>
+      <c r="I19">
+        <v>0.84</v>
+      </c>
+      <c r="J19">
+        <v>0.85</v>
+      </c>
+      <c r="K19">
+        <v>0.93</v>
+      </c>
+      <c r="L19">
+        <v>0.95</v>
+      </c>
+      <c r="M19">
+        <v>0.94</v>
+      </c>
+      <c r="N19">
+        <v>0.9</v>
+      </c>
+      <c r="O19">
+        <v>0.86</v>
+      </c>
+      <c r="P19">
+        <v>0.88</v>
+      </c>
+      <c r="Q19">
+        <v>0.84</v>
+      </c>
+      <c r="R19">
+        <v>0.85</v>
+      </c>
+      <c r="S19">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>904727489</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20">
+        <v>0.86</v>
+      </c>
+      <c r="I20">
+        <v>0.85</v>
+      </c>
+      <c r="J20">
+        <v>0.86</v>
+      </c>
+      <c r="K20">
+        <v>0.92</v>
+      </c>
+      <c r="L20">
+        <v>0.94</v>
+      </c>
+      <c r="M20">
+        <v>0.93</v>
+      </c>
+      <c r="N20">
+        <v>0.9</v>
+      </c>
+      <c r="O20">
+        <v>0.87</v>
+      </c>
+      <c r="P20">
+        <v>0.88</v>
+      </c>
+      <c r="Q20">
+        <v>0.85</v>
+      </c>
+      <c r="R20">
+        <v>0.87</v>
+      </c>
+      <c r="S20">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>42</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <v>0.87</v>
+      </c>
+      <c r="I21">
+        <v>0.86</v>
+      </c>
+      <c r="J21">
+        <v>0.86</v>
+      </c>
+      <c r="K21">
+        <v>0.91</v>
+      </c>
+      <c r="L21">
+        <v>0.95</v>
+      </c>
+      <c r="M21">
+        <v>0.93</v>
+      </c>
+      <c r="N21">
+        <v>0.92</v>
+      </c>
+      <c r="O21">
+        <v>0.87</v>
+      </c>
+      <c r="P21">
+        <v>0.89</v>
+      </c>
+      <c r="Q21">
+        <v>0.84</v>
+      </c>
+      <c r="R21">
+        <v>0.86</v>
+      </c>
+      <c r="S21">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>42</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22">
+        <v>0.86</v>
+      </c>
+      <c r="I22">
+        <v>0.85</v>
+      </c>
+      <c r="J22">
+        <v>0.85</v>
+      </c>
+      <c r="K22">
+        <v>0.92</v>
+      </c>
+      <c r="L22">
+        <v>0.94</v>
+      </c>
+      <c r="M22">
+        <v>0.93</v>
+      </c>
+      <c r="N22">
+        <v>0.91</v>
+      </c>
+      <c r="O22">
+        <v>0.86</v>
+      </c>
+      <c r="P22">
+        <v>0.89</v>
+      </c>
+      <c r="Q22">
+        <v>0.85</v>
+      </c>
+      <c r="R22">
+        <v>0.86</v>
+      </c>
+      <c r="S22">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>16</v>
+      </c>
+      <c r="E23">
+        <v>42</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23">
+        <v>0.87</v>
+      </c>
+      <c r="I23">
+        <v>0.87</v>
+      </c>
+      <c r="J23">
+        <v>0.87</v>
+      </c>
+      <c r="K23">
+        <v>0.92</v>
+      </c>
+      <c r="L23">
+        <v>0.95</v>
+      </c>
+      <c r="M23">
+        <v>0.94</v>
+      </c>
+      <c r="N23">
+        <v>0.89</v>
+      </c>
+      <c r="O23">
+        <v>0.9</v>
+      </c>
+      <c r="P23">
+        <v>0.9</v>
+      </c>
+      <c r="Q23">
+        <v>0.84</v>
+      </c>
+      <c r="R23">
+        <v>0.74</v>
+      </c>
+      <c r="S23">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <v>42</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24">
+        <v>0.87</v>
+      </c>
+      <c r="I24">
+        <v>0.85</v>
+      </c>
+      <c r="J24">
+        <v>0.86</v>
+      </c>
+      <c r="K24">
+        <v>0.93</v>
+      </c>
+      <c r="L24">
+        <v>0.95</v>
+      </c>
+      <c r="M24">
+        <v>0.94</v>
+      </c>
+      <c r="N24">
+        <v>0.89</v>
+      </c>
+      <c r="O24">
+        <v>0.9</v>
+      </c>
+      <c r="P24">
+        <v>0.89</v>
+      </c>
+      <c r="Q24">
+        <v>0.85</v>
+      </c>
+      <c r="R24">
+        <v>0.89</v>
+      </c>
+      <c r="S24">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <v>904727489</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25">
+        <v>0.87</v>
+      </c>
+      <c r="I25">
+        <v>0.85</v>
+      </c>
+      <c r="J25">
+        <v>0.86</v>
+      </c>
+      <c r="N25">
+        <v>0.9</v>
+      </c>
+      <c r="O25">
+        <v>0.86</v>
+      </c>
+      <c r="P25">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <v>904727489</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26">
+        <v>0.85</v>
+      </c>
+      <c r="I26">
+        <v>0.83</v>
+      </c>
+      <c r="J26">
+        <v>0.84</v>
+      </c>
+      <c r="N26">
+        <v>0.87</v>
+      </c>
+      <c r="O26">
+        <v>0.85</v>
+      </c>
+      <c r="P26">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>16</v>
+      </c>
+      <c r="E27">
+        <v>42</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27">
+        <v>0.86</v>
+      </c>
+      <c r="I27">
+        <v>0.85</v>
+      </c>
+      <c r="J27">
+        <v>0.86</v>
+      </c>
+      <c r="K27">
+        <v>0.91</v>
+      </c>
+      <c r="L27">
+        <v>0.96</v>
+      </c>
+      <c r="M27">
+        <v>0.93</v>
+      </c>
+      <c r="N27">
+        <v>0.89</v>
+      </c>
+      <c r="O27">
+        <v>0.85</v>
+      </c>
+      <c r="P27">
+        <v>0.87</v>
+      </c>
+      <c r="Q27">
+        <v>0.84</v>
+      </c>
+      <c r="R27">
+        <v>0.88</v>
+      </c>
+      <c r="S27">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>16</v>
+      </c>
+      <c r="E28">
+        <v>42</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28">
+        <v>0.87</v>
+      </c>
+      <c r="I28">
+        <v>0.85</v>
+      </c>
+      <c r="J28">
+        <v>0.86</v>
+      </c>
+      <c r="K28">
+        <v>0.92</v>
+      </c>
+      <c r="L28">
+        <v>0.96</v>
+      </c>
+      <c r="M28">
+        <v>0.94</v>
+      </c>
+      <c r="N28">
+        <v>0.9</v>
+      </c>
+      <c r="O28">
+        <v>0.87</v>
+      </c>
+      <c r="P28">
+        <v>0.89</v>
+      </c>
+      <c r="Q28">
+        <v>0.85</v>
+      </c>
+      <c r="R28">
+        <v>0.87</v>
+      </c>
+      <c r="S28">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>16</v>
+      </c>
+      <c r="E29">
+        <v>42</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29">
+        <v>0.86</v>
+      </c>
+      <c r="I29">
+        <v>0.84</v>
+      </c>
+      <c r="J29">
+        <v>0.85</v>
+      </c>
+      <c r="K29">
+        <v>0.9</v>
+      </c>
+      <c r="L29">
+        <v>0.96</v>
+      </c>
+      <c r="M29">
+        <v>0.93</v>
+      </c>
+      <c r="N29">
+        <v>0.89</v>
+      </c>
+      <c r="O29">
+        <v>0.82</v>
+      </c>
+      <c r="P29">
+        <v>0.85</v>
+      </c>
+      <c r="Q29">
+        <v>0.86</v>
+      </c>
+      <c r="R29">
+        <v>0.89</v>
+      </c>
+      <c r="S29">
+        <v>0.88</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/results_task4.xlsx
+++ b/Results/results_task4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arbeit\Papiere\paper_req_classification\Datasets\Promise_relabeled\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arbeit\Papiere\NoRBERT\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521D3DE2-7890-4249-B2D9-114CE07EB4C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005659D1-4C9E-447D-8D3A-58196DD3C617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18120" yWindow="-5460" windowWidth="18240" windowHeight="28440" xr2:uid="{EAA1F360-018B-4C01-84E1-44DDC1521104}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAA1F360-018B-4C01-84E1-44DDC1521104}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="46">
   <si>
     <t>Model</t>
   </si>
@@ -100,13 +94,82 @@
   </si>
   <si>
     <t>10-fold</t>
+  </si>
+  <si>
+    <t>WASP:</t>
+  </si>
+  <si>
+    <t>Leeds:</t>
+  </si>
+  <si>
+    <t>Reqview:</t>
+  </si>
+  <si>
+    <t>Promise:</t>
+  </si>
+  <si>
+    <t>Dronology:</t>
+  </si>
+  <si>
+    <t>OnlyQ (2)</t>
+  </si>
+  <si>
+    <t>OnlyF (68)</t>
+  </si>
+  <si>
+    <t>Q (28)</t>
+  </si>
+  <si>
+    <t>F (94)</t>
+  </si>
+  <si>
+    <t>OnlyQ (6)</t>
+  </si>
+  <si>
+    <t>OnlyF (42)</t>
+  </si>
+  <si>
+    <t>train on whole promise</t>
+  </si>
+  <si>
+    <t>F (55)</t>
+  </si>
+  <si>
+    <t>Q (19)</t>
+  </si>
+  <si>
+    <t>F (75)</t>
+  </si>
+  <si>
+    <t>Q (32)</t>
+  </si>
+  <si>
+    <t>OnlyQ (11)</t>
+  </si>
+  <si>
+    <t>F (44)</t>
+  </si>
+  <si>
+    <t>Q (61)</t>
+  </si>
+  <si>
+    <t>OnlyF (23)</t>
+  </si>
+  <si>
+    <t>OnlyQ (40)</t>
+  </si>
+  <si>
+    <t>OnlyF (54)</t>
+  </si>
+  <si>
+    <t>AVG:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +183,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -129,7 +200,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -137,15 +208,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,152 +576,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABB2A89-5550-4106-AF63-C8C8FC55BBED}">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="U47" sqref="U47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
+      <c r="O2" s="3"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S2" t="s">
-        <v>8</v>
-      </c>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>16</v>
-      </c>
-      <c r="E3">
-        <v>904727489</v>
-      </c>
-      <c r="F3" t="b">
         <v>0</v>
       </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
       <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>0.89</v>
-      </c>
-      <c r="I3">
-        <v>0.83</v>
-      </c>
-      <c r="J3">
-        <v>0.86</v>
-      </c>
-      <c r="K3">
-        <v>0.91</v>
-      </c>
-      <c r="L3">
-        <v>0.93</v>
-      </c>
-      <c r="M3">
-        <v>0.92</v>
-      </c>
-      <c r="N3">
-        <v>0.85</v>
-      </c>
-      <c r="O3">
-        <v>0.86</v>
-      </c>
-      <c r="P3">
-        <v>0.85</v>
-      </c>
-      <c r="Q3">
-        <v>0.79</v>
-      </c>
-      <c r="R3">
-        <v>0.95</v>
-      </c>
-      <c r="S3">
-        <v>0.86</v>
+        <v>4</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -622,7 +684,7 @@
         <v>16</v>
       </c>
       <c r="E4">
-        <v>42</v>
+        <v>904727489</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -630,41 +692,41 @@
       <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="H4">
-        <v>0.86</v>
-      </c>
-      <c r="I4">
-        <v>0.88</v>
-      </c>
-      <c r="J4">
-        <v>0.87</v>
-      </c>
-      <c r="K4">
-        <v>0.9</v>
-      </c>
-      <c r="L4">
-        <v>0.96</v>
-      </c>
-      <c r="M4">
+      <c r="H4" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="L4" s="5">
         <v>0.93</v>
       </c>
-      <c r="N4">
-        <v>0.89</v>
-      </c>
-      <c r="O4">
-        <v>0.98</v>
-      </c>
-      <c r="P4">
-        <v>0.93</v>
+      <c r="M4" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0.85</v>
       </c>
       <c r="Q4">
-        <v>0.87</v>
+        <v>0.79</v>
       </c>
       <c r="R4">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="S4">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -672,7 +734,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -689,41 +751,41 @@
       <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="L5" s="5">
         <v>0.96</v>
       </c>
-      <c r="I5">
+      <c r="M5" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="Q5">
+        <v>0.87</v>
+      </c>
+      <c r="R5">
+        <v>0.93</v>
+      </c>
+      <c r="S5">
         <v>0.9</v>
-      </c>
-      <c r="J5">
-        <v>0.93</v>
-      </c>
-      <c r="K5">
-        <v>0.92</v>
-      </c>
-      <c r="L5">
-        <v>0.99</v>
-      </c>
-      <c r="M5">
-        <v>0.95</v>
-      </c>
-      <c r="N5">
-        <v>0.93</v>
-      </c>
-      <c r="O5">
-        <v>0.86</v>
-      </c>
-      <c r="P5">
-        <v>0.89</v>
-      </c>
-      <c r="Q5">
-        <v>0.89</v>
-      </c>
-      <c r="R5">
-        <v>0.83</v>
-      </c>
-      <c r="S5">
-        <v>0.86</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -731,7 +793,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -743,19 +805,46 @@
         <v>42</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="H6">
-        <v>0.86</v>
-      </c>
-      <c r="I6">
-        <v>0.88</v>
-      </c>
-      <c r="J6">
-        <v>0.87</v>
+      <c r="H6" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="Q6">
+        <v>0.89</v>
+      </c>
+      <c r="R6">
+        <v>0.83</v>
+      </c>
+      <c r="S6">
+        <v>0.86</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -775,54 +864,33 @@
         <v>42</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="H7">
-        <v>0.92</v>
-      </c>
-      <c r="I7">
+      <c r="H7" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="I7" s="5">
         <v>0.88</v>
       </c>
-      <c r="J7">
-        <v>0.9</v>
-      </c>
-      <c r="K7">
-        <v>0.91</v>
-      </c>
-      <c r="L7">
-        <v>0.99</v>
-      </c>
-      <c r="M7">
-        <v>0.95</v>
-      </c>
-      <c r="N7">
-        <v>0.92</v>
-      </c>
-      <c r="O7">
-        <v>0.93</v>
-      </c>
-      <c r="P7">
-        <v>0.92</v>
-      </c>
-      <c r="Q7">
-        <v>0.82</v>
-      </c>
-      <c r="R7">
+      <c r="J7" s="7">
         <v>0.87</v>
       </c>
-      <c r="S7">
-        <v>0.85</v>
-      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -837,25 +905,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="Q8">
+        <v>0.82</v>
+      </c>
+      <c r="R8">
         <v>0.87</v>
       </c>
-      <c r="I8">
-        <v>0.87</v>
-      </c>
-      <c r="J8">
-        <v>0.87</v>
-      </c>
-      <c r="N8">
-        <v>0.83</v>
-      </c>
-      <c r="O8">
-        <v>0.84</v>
-      </c>
-      <c r="P8">
-        <v>0.84</v>
+      <c r="S8">
+        <v>0.85</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -875,28 +961,31 @@
         <v>42</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
       </c>
-      <c r="N9">
+      <c r="H9" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="4">
         <v>0.83</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="5">
         <v>0.84</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="7">
         <v>0.84</v>
-      </c>
-      <c r="Q9">
-        <v>0.85</v>
-      </c>
-      <c r="R9">
-        <v>0.91</v>
-      </c>
-      <c r="S9">
-        <v>0.88</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -913,36 +1002,42 @@
         <v>16</v>
       </c>
       <c r="E10">
-        <v>904727489</v>
+        <v>42</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10">
+        <v>19</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="Q10">
+        <v>0.85</v>
+      </c>
+      <c r="R10">
         <v>0.91</v>
       </c>
-      <c r="O10">
-        <v>0.84</v>
-      </c>
-      <c r="P10">
+      <c r="S10">
         <v>0.88</v>
-      </c>
-      <c r="Q10">
-        <v>0.79</v>
-      </c>
-      <c r="R10">
-        <v>0.95</v>
-      </c>
-      <c r="S10">
-        <v>0.86</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -962,41 +1057,29 @@
       <c r="G11" t="s">
         <v>15</v>
       </c>
-      <c r="H11">
-        <v>0.87</v>
-      </c>
-      <c r="I11">
-        <v>0.85</v>
-      </c>
-      <c r="J11">
-        <v>0.86</v>
-      </c>
-      <c r="K11">
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="4">
         <v>0.91</v>
       </c>
-      <c r="L11">
+      <c r="O11" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="Q11">
+        <v>0.79</v>
+      </c>
+      <c r="R11">
         <v>0.95</v>
       </c>
-      <c r="M11">
-        <v>0.93</v>
-      </c>
-      <c r="N11">
-        <v>0.91</v>
-      </c>
-      <c r="O11">
-        <v>0.87</v>
-      </c>
-      <c r="P11">
-        <v>0.89</v>
-      </c>
-      <c r="Q11">
-        <v>0.85</v>
-      </c>
-      <c r="R11">
-        <v>0.9</v>
-      </c>
       <c r="S11">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1016,43 +1099,43 @@
         <v>904727489</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
         <v>15</v>
       </c>
-      <c r="H12">
-        <v>0.85</v>
-      </c>
-      <c r="I12">
-        <v>0.86</v>
-      </c>
-      <c r="J12">
-        <v>0.86</v>
-      </c>
-      <c r="K12">
+      <c r="H12" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="M12" s="7">
         <v>0.93</v>
       </c>
-      <c r="L12">
-        <v>0.96</v>
-      </c>
-      <c r="M12">
-        <v>0.94</v>
-      </c>
-      <c r="N12">
-        <v>0.88</v>
-      </c>
-      <c r="O12">
+      <c r="N12" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="O12" s="5">
         <v>0.87</v>
       </c>
-      <c r="P12">
-        <v>0.88</v>
+      <c r="P12" s="7">
+        <v>0.89</v>
       </c>
       <c r="Q12">
         <v>0.85</v>
       </c>
       <c r="R12">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="S12">
         <v>0.87</v>
@@ -1072,7 +1155,7 @@
         <v>16</v>
       </c>
       <c r="E13">
-        <v>42</v>
+        <v>904727489</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -1080,41 +1163,41 @@
       <c r="G13" t="s">
         <v>15</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="O13" s="5">
         <v>0.87</v>
       </c>
-      <c r="I13">
-        <v>0.84</v>
-      </c>
-      <c r="J13">
-        <v>0.86</v>
-      </c>
-      <c r="K13">
-        <v>0.92</v>
-      </c>
-      <c r="L13">
-        <v>0.97</v>
-      </c>
-      <c r="M13">
-        <v>0.94</v>
-      </c>
-      <c r="N13">
-        <v>0.92</v>
-      </c>
-      <c r="O13">
+      <c r="P13" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="Q13">
+        <v>0.85</v>
+      </c>
+      <c r="R13">
         <v>0.89</v>
       </c>
-      <c r="P13">
-        <v>0.91</v>
-      </c>
-      <c r="Q13">
-        <v>0.85</v>
-      </c>
-      <c r="R13">
-        <v>0.85</v>
-      </c>
       <c r="S13">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1134,46 +1217,46 @@
         <v>42</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="s">
         <v>15</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="O14" s="5">
         <v>0.89</v>
       </c>
-      <c r="I14">
-        <v>0.86</v>
-      </c>
-      <c r="J14">
-        <v>0.88</v>
-      </c>
-      <c r="K14">
+      <c r="P14" s="7">
         <v>0.91</v>
       </c>
-      <c r="L14">
-        <v>0.96</v>
-      </c>
-      <c r="M14">
-        <v>0.94</v>
-      </c>
-      <c r="N14">
-        <v>0.91</v>
-      </c>
-      <c r="O14">
-        <v>0.86</v>
-      </c>
-      <c r="P14">
-        <v>0.88</v>
-      </c>
       <c r="Q14">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="R14">
         <v>0.85</v>
       </c>
       <c r="S14">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1184,7 +1267,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>16</v>
@@ -1193,46 +1276,46 @@
         <v>42</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="s">
         <v>15</v>
       </c>
-      <c r="H15">
-        <v>0.86</v>
-      </c>
-      <c r="I15">
-        <v>0.84</v>
-      </c>
-      <c r="J15">
-        <v>0.85</v>
-      </c>
-      <c r="K15">
+      <c r="H15" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="K15" s="4">
         <v>0.91</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="5">
         <v>0.96</v>
       </c>
-      <c r="M15">
-        <v>0.93</v>
-      </c>
-      <c r="N15">
-        <v>0.9</v>
-      </c>
-      <c r="O15">
+      <c r="M15" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="P15" s="7">
         <v>0.88</v>
       </c>
-      <c r="P15">
-        <v>0.89</v>
-      </c>
       <c r="Q15">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="R15">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="S15">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1240,10 +1323,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D16">
         <v>16</v>
@@ -1257,41 +1340,41 @@
       <c r="G16" t="s">
         <v>15</v>
       </c>
-      <c r="H16">
-        <v>0.86</v>
-      </c>
-      <c r="I16">
-        <v>0.86</v>
-      </c>
-      <c r="J16">
-        <v>0.86</v>
-      </c>
-      <c r="K16">
-        <v>0.92</v>
-      </c>
-      <c r="L16">
-        <v>0.95</v>
-      </c>
-      <c r="M16">
-        <v>0.94</v>
-      </c>
-      <c r="N16">
+      <c r="H16" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="N16" s="4">
         <v>0.9</v>
       </c>
-      <c r="O16">
-        <v>0.9</v>
-      </c>
-      <c r="P16">
-        <v>0.9</v>
+      <c r="O16" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0.89</v>
       </c>
       <c r="Q16">
         <v>0.83</v>
       </c>
       <c r="R16">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="S16">
-        <v>0.79</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -1299,7 +1382,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -1314,25 +1397,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17">
-        <v>0.91</v>
-      </c>
-      <c r="O17">
-        <v>0.88</v>
-      </c>
-      <c r="P17">
-        <v>0.89</v>
+        <v>15</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0.9</v>
       </c>
       <c r="Q17">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="R17">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="S17">
-        <v>0.86</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -1352,33 +1453,39 @@
         <v>42</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="s">
         <v>19</v>
       </c>
-      <c r="N18">
+      <c r="H18" s="4"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="4">
         <v>0.91</v>
       </c>
-      <c r="O18">
-        <v>0.87</v>
-      </c>
-      <c r="P18">
+      <c r="O18" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="P18" s="7">
         <v>0.89</v>
       </c>
       <c r="Q18">
         <v>0.84</v>
       </c>
       <c r="R18">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="S18">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -1390,46 +1497,34 @@
         <v>16</v>
       </c>
       <c r="E19">
-        <v>904727489</v>
+        <v>42</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19">
-        <v>0.85</v>
-      </c>
-      <c r="I19">
-        <v>0.84</v>
-      </c>
-      <c r="J19">
-        <v>0.85</v>
-      </c>
-      <c r="K19">
-        <v>0.93</v>
-      </c>
-      <c r="L19">
-        <v>0.95</v>
-      </c>
-      <c r="M19">
-        <v>0.94</v>
-      </c>
-      <c r="N19">
-        <v>0.9</v>
-      </c>
-      <c r="O19">
-        <v>0.86</v>
-      </c>
-      <c r="P19">
-        <v>0.88</v>
+        <v>19</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0.89</v>
       </c>
       <c r="Q19">
         <v>0.84</v>
       </c>
       <c r="R19">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="S19">
         <v>0.85</v>
@@ -1452,46 +1547,46 @@
         <v>904727489</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="s">
         <v>15</v>
       </c>
-      <c r="H20">
-        <v>0.86</v>
-      </c>
-      <c r="I20">
-        <v>0.85</v>
-      </c>
-      <c r="J20">
-        <v>0.86</v>
-      </c>
-      <c r="K20">
-        <v>0.92</v>
-      </c>
-      <c r="L20">
+      <c r="H20" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="M20" s="7">
         <v>0.94</v>
       </c>
-      <c r="M20">
-        <v>0.93</v>
-      </c>
-      <c r="N20">
+      <c r="N20" s="4">
         <v>0.9</v>
       </c>
-      <c r="O20">
-        <v>0.87</v>
-      </c>
-      <c r="P20">
+      <c r="O20" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="P20" s="7">
         <v>0.88</v>
       </c>
       <c r="Q20">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="R20">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="S20">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -1508,7 +1603,7 @@
         <v>16</v>
       </c>
       <c r="E21">
-        <v>42</v>
+        <v>904727489</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1516,41 +1611,41 @@
       <c r="G21" t="s">
         <v>15</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="O21" s="5">
         <v>0.87</v>
       </c>
-      <c r="I21">
-        <v>0.86</v>
-      </c>
-      <c r="J21">
-        <v>0.86</v>
-      </c>
-      <c r="K21">
-        <v>0.91</v>
-      </c>
-      <c r="L21">
-        <v>0.95</v>
-      </c>
-      <c r="M21">
-        <v>0.93</v>
-      </c>
-      <c r="N21">
-        <v>0.92</v>
-      </c>
-      <c r="O21">
+      <c r="P21" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="Q21">
+        <v>0.85</v>
+      </c>
+      <c r="R21">
         <v>0.87</v>
       </c>
-      <c r="P21">
-        <v>0.89</v>
-      </c>
-      <c r="Q21">
-        <v>0.84</v>
-      </c>
-      <c r="R21">
-        <v>0.86</v>
-      </c>
       <c r="S21">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -1570,40 +1665,40 @@
         <v>42</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="s">
         <v>15</v>
       </c>
-      <c r="H22">
-        <v>0.86</v>
-      </c>
-      <c r="I22">
-        <v>0.85</v>
-      </c>
-      <c r="J22">
-        <v>0.85</v>
-      </c>
-      <c r="K22">
+      <c r="H22" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="N22" s="4">
         <v>0.92</v>
       </c>
-      <c r="L22">
-        <v>0.94</v>
-      </c>
-      <c r="M22">
-        <v>0.93</v>
-      </c>
-      <c r="N22">
-        <v>0.91</v>
-      </c>
-      <c r="O22">
-        <v>0.86</v>
-      </c>
-      <c r="P22">
+      <c r="O22" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="P22" s="7">
         <v>0.89</v>
       </c>
       <c r="Q22">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="R22">
         <v>0.86</v>
@@ -1617,7 +1712,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -1629,46 +1724,46 @@
         <v>42</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="s">
         <v>15</v>
       </c>
-      <c r="H23">
-        <v>0.87</v>
-      </c>
-      <c r="I23">
-        <v>0.87</v>
-      </c>
-      <c r="J23">
-        <v>0.87</v>
-      </c>
-      <c r="K23">
+      <c r="H23" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="K23" s="4">
         <v>0.92</v>
       </c>
-      <c r="L23">
-        <v>0.95</v>
-      </c>
-      <c r="M23">
+      <c r="L23" s="5">
         <v>0.94</v>
       </c>
-      <c r="N23">
+      <c r="M23" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="P23" s="7">
         <v>0.89</v>
       </c>
-      <c r="O23">
-        <v>0.9</v>
-      </c>
-      <c r="P23">
-        <v>0.9</v>
-      </c>
       <c r="Q23">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="R23">
-        <v>0.74</v>
+        <v>0.86</v>
       </c>
       <c r="S23">
-        <v>0.78</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -1688,54 +1783,54 @@
         <v>42</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="s">
         <v>15</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="4">
         <v>0.87</v>
       </c>
-      <c r="I24">
-        <v>0.85</v>
-      </c>
-      <c r="J24">
-        <v>0.86</v>
-      </c>
-      <c r="K24">
-        <v>0.93</v>
-      </c>
-      <c r="L24">
+      <c r="I24" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="L24" s="5">
         <v>0.95</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="7">
         <v>0.94</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="4">
         <v>0.89</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="5">
         <v>0.9</v>
       </c>
-      <c r="P24">
-        <v>0.89</v>
+      <c r="P24" s="7">
+        <v>0.9</v>
       </c>
       <c r="Q24">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="R24">
-        <v>0.89</v>
+        <v>0.74</v>
       </c>
       <c r="S24">
-        <v>0.87</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C25">
         <v>10</v>
@@ -1744,31 +1839,49 @@
         <v>16</v>
       </c>
       <c r="E25">
-        <v>904727489</v>
+        <v>42</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="s">
         <v>15</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="4">
         <v>0.87</v>
       </c>
-      <c r="I25">
-        <v>0.85</v>
-      </c>
-      <c r="J25">
-        <v>0.86</v>
-      </c>
-      <c r="N25">
+      <c r="I25" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="O25" s="5">
         <v>0.9</v>
       </c>
-      <c r="O25">
-        <v>0.86</v>
-      </c>
-      <c r="P25">
-        <v>0.88</v>
+      <c r="P25" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="Q25">
+        <v>0.85</v>
+      </c>
+      <c r="R25">
+        <v>0.89</v>
+      </c>
+      <c r="S25">
+        <v>0.87</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -1788,28 +1901,31 @@
         <v>904727489</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="s">
         <v>15</v>
       </c>
-      <c r="H26">
-        <v>0.85</v>
-      </c>
-      <c r="I26">
-        <v>0.83</v>
-      </c>
-      <c r="J26">
-        <v>0.84</v>
-      </c>
-      <c r="N26">
+      <c r="H26" s="4">
         <v>0.87</v>
       </c>
-      <c r="O26">
-        <v>0.85</v>
-      </c>
-      <c r="P26">
-        <v>0.86</v>
+      <c r="I26" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="P26" s="7">
+        <v>0.88</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -1826,48 +1942,33 @@
         <v>16</v>
       </c>
       <c r="E27">
-        <v>42</v>
+        <v>904727489</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="s">
         <v>15</v>
       </c>
-      <c r="H27">
-        <v>0.86</v>
-      </c>
-      <c r="I27">
-        <v>0.85</v>
-      </c>
-      <c r="J27">
-        <v>0.86</v>
-      </c>
-      <c r="K27">
-        <v>0.91</v>
-      </c>
-      <c r="L27">
-        <v>0.96</v>
-      </c>
-      <c r="M27">
-        <v>0.93</v>
-      </c>
-      <c r="N27">
-        <v>0.89</v>
-      </c>
-      <c r="O27">
-        <v>0.85</v>
-      </c>
-      <c r="P27">
+      <c r="H27" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="4">
         <v>0.87</v>
       </c>
-      <c r="Q27">
-        <v>0.84</v>
-      </c>
-      <c r="R27">
-        <v>0.88</v>
-      </c>
-      <c r="S27">
+      <c r="O27" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="P27" s="7">
         <v>0.86</v>
       </c>
     </row>
@@ -1888,43 +1989,43 @@
         <v>42</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="s">
         <v>15</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="O28" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="P28" s="7">
         <v>0.87</v>
       </c>
-      <c r="I28">
-        <v>0.85</v>
-      </c>
-      <c r="J28">
-        <v>0.86</v>
-      </c>
-      <c r="K28">
-        <v>0.92</v>
-      </c>
-      <c r="L28">
-        <v>0.96</v>
-      </c>
-      <c r="M28">
-        <v>0.94</v>
-      </c>
-      <c r="N28">
-        <v>0.9</v>
-      </c>
-      <c r="O28">
-        <v>0.87</v>
-      </c>
-      <c r="P28">
-        <v>0.89</v>
-      </c>
       <c r="Q28">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="R28">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="S28">
         <v>0.86</v>
@@ -1935,7 +2036,7 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -1947,56 +2048,1201 @@
         <v>42</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="s">
         <v>15</v>
       </c>
-      <c r="H29">
-        <v>0.86</v>
-      </c>
-      <c r="I29">
+      <c r="H29" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="O29" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="P29" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="Q29">
+        <v>0.85</v>
+      </c>
+      <c r="R29">
+        <v>0.87</v>
+      </c>
+      <c r="S29">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>16</v>
+      </c>
+      <c r="E30">
+        <v>42</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="I30" s="5">
         <v>0.84</v>
       </c>
-      <c r="J29">
-        <v>0.85</v>
-      </c>
-      <c r="K29">
+      <c r="J30" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="K30" s="4">
         <v>0.9</v>
       </c>
-      <c r="L29">
+      <c r="L30" s="5">
         <v>0.96</v>
       </c>
-      <c r="M29">
+      <c r="M30" s="7">
         <v>0.93</v>
       </c>
-      <c r="N29">
+      <c r="N30" s="4">
         <v>0.89</v>
       </c>
-      <c r="O29">
+      <c r="O30" s="5">
         <v>0.82</v>
       </c>
-      <c r="P29">
-        <v>0.85</v>
-      </c>
-      <c r="Q29">
-        <v>0.86</v>
-      </c>
-      <c r="R29">
+      <c r="P30" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="Q30">
+        <v>0.86</v>
+      </c>
+      <c r="R30">
         <v>0.89</v>
       </c>
-      <c r="S29">
+      <c r="S30">
         <v>0.88</v>
       </c>
     </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+    </row>
+    <row r="33" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="7"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O34" s="3"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>16</v>
+      </c>
+      <c r="E36">
+        <v>42</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="12">
+        <v>1</v>
+      </c>
+      <c r="I36" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="J36" s="9">
+        <v>0.92</v>
+      </c>
+      <c r="K36" s="12">
+        <v>0.41</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="M36" s="9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N36" s="12">
+        <v>1</v>
+      </c>
+      <c r="O36" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="P36" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R36" s="8">
+        <v>1</v>
+      </c>
+      <c r="S36" s="5">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>16</v>
+      </c>
+      <c r="E37">
+        <v>42</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="12">
+        <v>1</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="O37" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="P37" s="9">
+        <v>0.66</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="R37" s="8">
+        <v>1</v>
+      </c>
+      <c r="S37" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <v>42</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="12">
+        <v>1</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="L38" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="M38" s="9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N38" s="12">
+        <v>1</v>
+      </c>
+      <c r="O38" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="P38" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q38" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="R38" s="8">
+        <v>1</v>
+      </c>
+      <c r="S38" s="8">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="7"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L41" s="3"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O41" s="3"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>6</v>
+      </c>
+      <c r="R42" t="s">
+        <v>7</v>
+      </c>
+      <c r="S42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>16</v>
+      </c>
+      <c r="E43">
+        <v>42</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="I43" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="J43" s="9">
+        <v>0.78</v>
+      </c>
+      <c r="K43" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="L43" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="M43" s="9">
+        <v>0.89</v>
+      </c>
+      <c r="N43" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="O43" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="P43" s="9">
+        <v>0.64</v>
+      </c>
+      <c r="Q43">
+        <v>0.81</v>
+      </c>
+      <c r="R43" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="S43">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>16</v>
+      </c>
+      <c r="E44">
+        <v>42</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="12">
+        <v>1</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="J44" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="M44" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="N44" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="O44" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="P44" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="Q44" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="R44" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="S44" s="10">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="7"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L47" s="3"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O47" s="3"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>6</v>
+      </c>
+      <c r="R48" t="s">
+        <v>7</v>
+      </c>
+      <c r="S48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>16</v>
+      </c>
+      <c r="E49">
+        <v>42</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="I49" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="J49" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="K49" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="L49" s="5">
+        <v>0.47</v>
+      </c>
+      <c r="M49" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N49" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="O49" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="P49" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="Q49">
+        <v>0.6</v>
+      </c>
+      <c r="R49">
+        <v>0.82</v>
+      </c>
+      <c r="S49">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <v>16</v>
+      </c>
+      <c r="E50">
+        <v>42</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="12">
+        <v>1</v>
+      </c>
+      <c r="I50" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="J50" s="9">
+        <v>0.99</v>
+      </c>
+      <c r="K50" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="L50" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="M50" s="9">
+        <v>0.66</v>
+      </c>
+      <c r="N50" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="O50" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="P50" s="9">
+        <v>0.73</v>
+      </c>
+      <c r="Q50" s="11">
+        <v>0.83</v>
+      </c>
+      <c r="R50" s="11">
+        <v>0.91</v>
+      </c>
+      <c r="S50" s="11">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="7"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L53" s="3"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O53" s="3"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>6</v>
+      </c>
+      <c r="R54" t="s">
+        <v>7</v>
+      </c>
+      <c r="S54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>16</v>
+      </c>
+      <c r="E55">
+        <v>42</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="12">
+        <v>0.98</v>
+      </c>
+      <c r="I55" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J55" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="L55" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N55" s="12">
+        <v>0.93</v>
+      </c>
+      <c r="O55" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="P55" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <v>16</v>
+      </c>
+      <c r="E56">
+        <v>42</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="12">
+        <v>0.98</v>
+      </c>
+      <c r="I56" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="J56" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="K56" s="12">
+        <v>0.62</v>
+      </c>
+      <c r="L56" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="M56" s="9">
+        <v>0.53</v>
+      </c>
+      <c r="N56" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="O56" s="8">
+        <v>0.63</v>
+      </c>
+      <c r="P56" s="9">
+        <v>0.71</v>
+      </c>
+      <c r="Q56" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="R56" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="S56" s="11">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58">
+        <f>AVERAGE(H36:H38,H43,H44,H49,H50,H55,H56)</f>
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="I58">
+        <f>AVERAGE(I36:I38,I43,I44,I49,I50,I55,I56)</f>
+        <v>0.75777777777777766</v>
+      </c>
+      <c r="J58">
+        <f>AVERAGE(J36:J38,J43,J44,J49,J50,J55,J56)</f>
+        <v>0.85222222222222233</v>
+      </c>
+      <c r="K58">
+        <f>AVERAGE(K36:K38,K43,K44,K49,K50,K55,K56)</f>
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="L58">
+        <f>AVERAGE(L36:L38,L43,L44,L49,L50,L55,L56)</f>
+        <v>0.70222222222222219</v>
+      </c>
+      <c r="M58">
+        <f>AVERAGE(M36:M38,M43,M44,M49,M50,M55,M56)</f>
+        <v>0.62555555555555553</v>
+      </c>
+      <c r="N58">
+        <f>AVERAGE(N36:N38,N43,N44,N49,N50,N55,N56)</f>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="O58">
+        <f>AVERAGE(O36:O38,O43,O44,O49,O50,O55,O56)</f>
+        <v>0.46555555555555561</v>
+      </c>
+      <c r="P58">
+        <f>AVERAGE(P36:P38,P43,P44,P49,P50,P55,P56)</f>
+        <v>0.56555555555555559</v>
+      </c>
+      <c r="Q58">
+        <f>AVERAGE(Q36:Q38,Q43,Q44,Q49,Q50,Q55,Q56)</f>
+        <v>0.55222222222222217</v>
+      </c>
+      <c r="R58">
+        <f>AVERAGE(R36:R38,R43,R44,R49,R50,R55,R56)</f>
+        <v>0.79222222222222227</v>
+      </c>
+      <c r="S58">
+        <f>AVERAGE(S36:S38,S43,S44,S49,S50,S55,S56)</f>
+        <v>0.62333333333333329</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
+  <mergeCells count="20">
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="Q34:S34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results/results_task4.xlsx
+++ b/Results/results_task4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arbeit\Papiere\NoRBERT\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005659D1-4C9E-447D-8D3A-58196DD3C617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E071796E-8C25-4C27-97B5-6F8385F9947C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAA1F360-018B-4C01-84E1-44DDC1521104}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="49">
   <si>
     <t>Model</t>
   </si>
@@ -162,7 +162,16 @@
     <t>OnlyF (54)</t>
   </si>
   <si>
-    <t>AVG:</t>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>weighted</t>
+  </si>
+  <si>
+    <t>Weighted AVG</t>
+  </si>
+  <si>
+    <t>Testset</t>
   </si>
 </sst>
 </file>
@@ -239,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -262,6 +271,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,13 +586,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABB2A89-5550-4106-AF63-C8C8FC55BBED}">
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="U47" sqref="U47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="T52" sqref="T52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2195,15 +2208,18 @@
       <c r="A33" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="4"/>
+      <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="4"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="4"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
       <c r="O33" s="5"/>
-      <c r="P33" s="7"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H34" s="2" t="s">
@@ -2470,172 +2486,175 @@
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
+      <c r="G39" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" s="5">
+        <f t="shared" ref="H39:I39" si="0">55*H36</f>
+        <v>55</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" si="0"/>
+        <v>46.75</v>
+      </c>
+      <c r="J39" s="5">
+        <f>55*J36</f>
+        <v>50.6</v>
+      </c>
+      <c r="K39" s="5">
+        <f>19*K36</f>
+        <v>7.7899999999999991</v>
+      </c>
+      <c r="L39" s="5">
+        <f t="shared" ref="L39" si="1">19*L38</f>
+        <v>16.91</v>
+      </c>
+      <c r="M39" s="5">
+        <f>19*M38</f>
+        <v>10.450000000000001</v>
+      </c>
+      <c r="N39" s="5">
+        <f>42*N36</f>
+        <v>42</v>
+      </c>
+      <c r="O39" s="5">
+        <f t="shared" ref="O39" si="2">42*O36</f>
+        <v>7.98</v>
+      </c>
+      <c r="P39" s="5">
+        <f>42*P37</f>
+        <v>27.720000000000002</v>
+      </c>
+      <c r="Q39" s="5">
+        <f>6*Q38</f>
+        <v>5.16</v>
+      </c>
+      <c r="R39" s="5">
+        <f t="shared" ref="R39:S39" si="3">6*R38</f>
+        <v>6</v>
+      </c>
+      <c r="S39" s="5">
+        <f t="shared" si="3"/>
+        <v>5.5200000000000005</v>
+      </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>24</v>
       </c>
-      <c r="H40" s="4"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="7"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="2" t="s">
+      <c r="I42" s="3"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L41" s="3"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="2" t="s">
+      <c r="L42" s="3"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O41" s="3"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="1" t="s">
+      <c r="O42" s="3"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" t="s">
-        <v>2</v>
-      </c>
-      <c r="F42" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M42" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="O42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>6</v>
-      </c>
-      <c r="R42" t="s">
-        <v>7</v>
-      </c>
-      <c r="S42" t="s">
-        <v>8</v>
-      </c>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43">
-        <v>10</v>
-      </c>
-      <c r="D43">
-        <v>16</v>
-      </c>
-      <c r="E43">
-        <v>42</v>
-      </c>
-      <c r="F43" t="b">
         <v>0</v>
       </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>3</v>
+      </c>
       <c r="G43" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="4">
-        <v>0.97</v>
-      </c>
-      <c r="I43" s="8">
-        <v>0.64</v>
-      </c>
-      <c r="J43" s="9">
-        <v>0.78</v>
-      </c>
-      <c r="K43" s="12">
-        <v>0.84</v>
-      </c>
-      <c r="L43" s="8">
-        <v>0.95</v>
-      </c>
-      <c r="M43" s="9">
-        <v>0.89</v>
-      </c>
-      <c r="N43" s="4">
-        <v>0.63</v>
-      </c>
-      <c r="O43" s="8">
-        <v>0.65</v>
-      </c>
-      <c r="P43" s="9">
-        <v>0.64</v>
-      </c>
-      <c r="Q43">
-        <v>0.81</v>
-      </c>
-      <c r="R43" s="11">
-        <v>0.95</v>
-      </c>
-      <c r="S43">
-        <v>0.87</v>
+        <v>4</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>6</v>
+      </c>
+      <c r="R43" t="s">
+        <v>7</v>
+      </c>
+      <c r="S43" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -2643,7 +2662,7 @@
         <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C44">
         <v>10</v>
@@ -2660,578 +2679,888 @@
       <c r="G44" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H44" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="I44" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="J44" s="9">
+        <v>0.78</v>
+      </c>
+      <c r="K44" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="L44" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="M44" s="9">
+        <v>0.89</v>
+      </c>
+      <c r="N44" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="O44" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="P44" s="9">
+        <v>0.64</v>
+      </c>
+      <c r="Q44">
+        <v>0.81</v>
+      </c>
+      <c r="R44" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="S44">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>16</v>
+      </c>
+      <c r="E45">
+        <v>42</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="12">
         <v>1</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I45" s="5">
         <v>0.61</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J45" s="7">
         <v>0.76</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K45" s="4">
         <v>0.8</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L45" s="5">
         <v>0.9</v>
       </c>
-      <c r="M44" s="7">
-        <v>0.85</v>
-      </c>
-      <c r="N44" s="12">
+      <c r="M45" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="N45" s="12">
         <v>0.67</v>
       </c>
-      <c r="O44" s="5">
+      <c r="O45" s="5">
         <v>0.52</v>
       </c>
-      <c r="P44" s="7">
+      <c r="P45" s="7">
         <v>0.59</v>
       </c>
-      <c r="Q44" s="10">
+      <c r="Q45" s="10">
         <v>0.9</v>
       </c>
-      <c r="R44" s="10">
+      <c r="R45" s="10">
         <v>0.95</v>
       </c>
-      <c r="S44" s="10">
+      <c r="S45" s="10">
         <v>0.93</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-    </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>25</v>
-      </c>
-      <c r="H46" s="4"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="7"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" s="5">
+        <f>44*H45</f>
+        <v>44</v>
+      </c>
+      <c r="I46" s="5">
+        <f t="shared" ref="I46" si="4">44*I44</f>
+        <v>28.16</v>
+      </c>
+      <c r="J46" s="5">
+        <f>44*J44</f>
+        <v>34.32</v>
+      </c>
+      <c r="K46" s="5">
+        <f t="shared" ref="K46:L46" si="5">61*K44</f>
+        <v>51.239999999999995</v>
+      </c>
+      <c r="L46" s="5">
+        <f t="shared" si="5"/>
+        <v>57.949999999999996</v>
+      </c>
+      <c r="M46" s="5">
+        <f>61*M44</f>
+        <v>54.29</v>
+      </c>
+      <c r="N46" s="5">
+        <f>23*N45</f>
+        <v>15.41</v>
+      </c>
+      <c r="O46" s="5">
+        <f t="shared" ref="O46:P46" si="6">23*O44</f>
+        <v>14.950000000000001</v>
+      </c>
+      <c r="P46" s="5">
+        <f t="shared" si="6"/>
+        <v>14.72</v>
+      </c>
+      <c r="Q46" s="5">
+        <f>40*Q45</f>
+        <v>36</v>
+      </c>
+      <c r="R46" s="5">
+        <f t="shared" ref="R46:S46" si="7">40*R45</f>
+        <v>38</v>
+      </c>
+      <c r="S46" s="5">
+        <f t="shared" si="7"/>
+        <v>37.200000000000003</v>
+      </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L47" s="3"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O47" s="3"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L49" s="3"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O49" s="3"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>5</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
         <v>0</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C50" t="s">
         <v>1</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D50" t="s">
         <v>13</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E50" t="s">
         <v>2</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F50" t="s">
         <v>3</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G50" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="I50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J48" s="7" t="s">
+      <c r="J50" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="K50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L48" s="5" t="s">
+      <c r="L50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M48" s="7" t="s">
+      <c r="M50" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N48" s="4" t="s">
+      <c r="N50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O48" s="5" t="s">
+      <c r="O50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="P48" s="7" t="s">
+      <c r="P50" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="Q50" t="s">
         <v>6</v>
       </c>
-      <c r="R48" t="s">
+      <c r="R50" t="s">
         <v>7</v>
       </c>
-      <c r="S48" t="s">
+      <c r="S50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>34</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" t="s">
         <v>14</v>
       </c>
-      <c r="C49">
+      <c r="C51">
         <v>10</v>
       </c>
-      <c r="D49">
-        <v>16</v>
-      </c>
-      <c r="E49">
+      <c r="D51">
+        <v>16</v>
+      </c>
+      <c r="E51">
         <v>42</v>
       </c>
-      <c r="F49" t="b">
+      <c r="F51" t="b">
         <v>0</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G51" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H51" s="4">
         <v>0.97</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I51" s="8">
         <v>0.97</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J51" s="7">
         <v>0.98</v>
       </c>
-      <c r="K49" s="4">
+      <c r="K51" s="4">
         <v>0.71</v>
       </c>
-      <c r="L49" s="5">
+      <c r="L51" s="5">
         <v>0.47</v>
       </c>
-      <c r="M49" s="7">
+      <c r="M51" s="7">
         <v>0.56999999999999995</v>
       </c>
-      <c r="N49" s="12">
+      <c r="N51" s="12">
         <v>0.84</v>
       </c>
-      <c r="O49" s="5">
+      <c r="O51" s="5">
         <v>0.48</v>
       </c>
-      <c r="P49" s="7">
+      <c r="P51" s="7">
         <v>0.61</v>
       </c>
-      <c r="Q49">
+      <c r="Q51">
         <v>0.6</v>
       </c>
-      <c r="R49">
+      <c r="R51">
         <v>0.82</v>
       </c>
-      <c r="S49">
+      <c r="S51">
         <v>0.69</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>34</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>18</v>
       </c>
-      <c r="C50">
+      <c r="C52">
         <v>10</v>
       </c>
-      <c r="D50">
-        <v>16</v>
-      </c>
-      <c r="E50">
+      <c r="D52">
+        <v>16</v>
+      </c>
+      <c r="E52">
         <v>42</v>
       </c>
-      <c r="F50" t="b">
+      <c r="F52" t="b">
         <v>0</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G52" t="s">
         <v>15</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H52" s="12">
         <v>1</v>
       </c>
-      <c r="I50" s="8">
+      <c r="I52" s="8">
         <v>0.97</v>
       </c>
-      <c r="J50" s="9">
+      <c r="J52" s="9">
         <v>0.99</v>
       </c>
-      <c r="K50" s="12">
+      <c r="K52" s="12">
         <v>0.73</v>
       </c>
-      <c r="L50" s="8">
+      <c r="L52" s="8">
         <v>0.59</v>
       </c>
-      <c r="M50" s="9">
+      <c r="M52" s="9">
         <v>0.66</v>
       </c>
-      <c r="N50" s="4">
+      <c r="N52" s="4">
         <v>0.82</v>
       </c>
-      <c r="O50" s="8">
+      <c r="O52" s="8">
         <v>0.67</v>
       </c>
-      <c r="P50" s="9">
+      <c r="P52" s="9">
         <v>0.73</v>
       </c>
-      <c r="Q50" s="11">
+      <c r="Q52" s="11">
         <v>0.83</v>
       </c>
-      <c r="R50" s="11">
+      <c r="R52" s="11">
         <v>0.91</v>
       </c>
-      <c r="S50" s="11">
+      <c r="S52" s="11">
         <v>0.87</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" s="5">
+        <f t="shared" ref="H53:I53" si="8">75*H52</f>
+        <v>75</v>
+      </c>
+      <c r="I53" s="5">
+        <f t="shared" si="8"/>
+        <v>72.75</v>
+      </c>
+      <c r="J53" s="5">
+        <f>75*J52</f>
+        <v>74.25</v>
+      </c>
+      <c r="K53" s="5">
+        <f t="shared" ref="K53:L53" si="9">32*K52</f>
+        <v>23.36</v>
+      </c>
+      <c r="L53" s="5">
+        <f t="shared" si="9"/>
+        <v>18.88</v>
+      </c>
+      <c r="M53" s="5">
+        <f>32*M52</f>
+        <v>21.12</v>
+      </c>
+      <c r="N53" s="5">
+        <f>54*N51</f>
+        <v>45.36</v>
+      </c>
+      <c r="O53" s="5">
+        <f t="shared" ref="O53:P53" si="10">54*O52</f>
+        <v>36.18</v>
+      </c>
+      <c r="P53" s="5">
+        <f t="shared" si="10"/>
+        <v>39.42</v>
+      </c>
+      <c r="Q53" s="5">
+        <f>11*Q52</f>
+        <v>9.129999999999999</v>
+      </c>
+      <c r="R53" s="5">
+        <f t="shared" ref="R53:S53" si="11">11*R52</f>
+        <v>10.01</v>
+      </c>
+      <c r="S53" s="5">
+        <f t="shared" si="11"/>
+        <v>9.57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>27</v>
       </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="7"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H53" s="2" t="s">
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H56" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="2" t="s">
+      <c r="I56" s="3"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L53" s="3"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="2" t="s">
+      <c r="L56" s="3"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O53" s="3"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="1" t="s">
+      <c r="O56" s="3"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>5</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B57" t="s">
         <v>0</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C57" t="s">
         <v>1</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D57" t="s">
         <v>13</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E57" t="s">
         <v>2</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F57" t="s">
         <v>3</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G57" t="s">
         <v>4</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="H57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="I57" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J54" s="7" t="s">
+      <c r="J57" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K54" s="4" t="s">
+      <c r="K57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L54" s="5" t="s">
+      <c r="L57" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M54" s="7" t="s">
+      <c r="M57" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N54" s="4" t="s">
+      <c r="N57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O54" s="5" t="s">
+      <c r="O57" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="P54" s="7" t="s">
+      <c r="P57" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="Q57" t="s">
         <v>6</v>
       </c>
-      <c r="R54" t="s">
+      <c r="R57" t="s">
         <v>7</v>
       </c>
-      <c r="S54" t="s">
+      <c r="S57" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>34</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B58" t="s">
         <v>14</v>
       </c>
-      <c r="C55">
+      <c r="C58">
         <v>10</v>
       </c>
-      <c r="D55">
-        <v>16</v>
-      </c>
-      <c r="E55">
+      <c r="D58">
+        <v>16</v>
+      </c>
+      <c r="E58">
         <v>42</v>
       </c>
-      <c r="F55" t="b">
+      <c r="F58" t="b">
         <v>0</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G58" t="s">
         <v>15</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H58" s="12">
         <v>0.98</v>
       </c>
-      <c r="I55" s="5">
+      <c r="I58" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J58" s="7">
         <v>0.71</v>
       </c>
-      <c r="K55" s="4">
+      <c r="K58" s="4">
         <v>0.6</v>
       </c>
-      <c r="L55" s="5">
+      <c r="L58" s="5">
         <v>0.43</v>
       </c>
-      <c r="M55" s="7">
+      <c r="M58" s="7">
         <v>0.5</v>
       </c>
-      <c r="N55" s="12">
+      <c r="N58" s="12">
         <v>0.93</v>
       </c>
-      <c r="O55" s="5">
+      <c r="O58" s="5">
         <v>0.38</v>
       </c>
-      <c r="P55" s="7">
+      <c r="P58" s="7">
         <v>0.54</v>
       </c>
-      <c r="Q55">
+      <c r="Q58">
         <v>0</v>
       </c>
-      <c r="R55">
+      <c r="R58">
         <v>0</v>
       </c>
-      <c r="S55">
+      <c r="S58">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>34</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B59" t="s">
         <v>18</v>
       </c>
-      <c r="C56">
+      <c r="C59">
         <v>10</v>
       </c>
-      <c r="D56">
-        <v>16</v>
-      </c>
-      <c r="E56">
+      <c r="D59">
+        <v>16</v>
+      </c>
+      <c r="E59">
         <v>42</v>
       </c>
-      <c r="F56" t="b">
+      <c r="F59" t="b">
         <v>0</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G59" t="s">
         <v>15</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H59" s="12">
         <v>0.98</v>
       </c>
-      <c r="I56" s="8">
+      <c r="I59" s="8">
         <v>0.84</v>
       </c>
-      <c r="J56" s="9">
+      <c r="J59" s="9">
         <v>0.9</v>
       </c>
-      <c r="K56" s="12">
+      <c r="K59" s="12">
         <v>0.62</v>
       </c>
-      <c r="L56" s="8">
+      <c r="L59" s="8">
         <v>0.46</v>
       </c>
-      <c r="M56" s="9">
+      <c r="M59" s="9">
         <v>0.53</v>
       </c>
-      <c r="N56" s="4">
+      <c r="N59" s="4">
         <v>0.81</v>
       </c>
-      <c r="O56" s="8">
+      <c r="O59" s="8">
         <v>0.63</v>
       </c>
-      <c r="P56" s="9">
+      <c r="P59" s="9">
         <v>0.71</v>
       </c>
-      <c r="Q56" s="11">
+      <c r="Q59" s="11">
         <v>0.08</v>
       </c>
-      <c r="R56" s="11">
+      <c r="R59" s="11">
         <v>0.5</v>
       </c>
-      <c r="S56" s="11">
+      <c r="S59" s="11">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G58" t="s">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G60" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60">
+        <f t="shared" ref="H60:I60" si="12">94*H59</f>
+        <v>92.12</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="12"/>
+        <v>78.959999999999994</v>
+      </c>
+      <c r="J60">
+        <f>94*J59</f>
+        <v>84.600000000000009</v>
+      </c>
+      <c r="K60">
+        <f t="shared" ref="K60:L60" si="13">28*K59</f>
+        <v>17.36</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="13"/>
+        <v>12.88</v>
+      </c>
+      <c r="M60">
+        <f>28*M59</f>
+        <v>14.84</v>
+      </c>
+      <c r="N60">
+        <f>68*N58</f>
+        <v>63.24</v>
+      </c>
+      <c r="O60">
+        <f t="shared" ref="O60:P60" si="14">68*O59</f>
+        <v>42.84</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="14"/>
+        <v>48.28</v>
+      </c>
+      <c r="Q60">
+        <f>2*Q59</f>
+        <v>0.16</v>
+      </c>
+      <c r="R60">
+        <f t="shared" ref="R60:S60" si="15">2*R59</f>
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="15"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <f>55+44+75+94</f>
+        <v>268</v>
+      </c>
+      <c r="L62">
+        <f>28+32+61+19</f>
+        <v>140</v>
+      </c>
+      <c r="O62">
+        <f>42+23+54+68</f>
+        <v>187</v>
+      </c>
+      <c r="R62">
+        <f>2+11+40+6</f>
+        <v>59</v>
+      </c>
+      <c r="T62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H63" s="14">
+        <f t="shared" ref="H63:I63" si="16">SUM(H39,H46,H53,H60)/(55+44+75+94)</f>
+        <v>0.99298507462686569</v>
+      </c>
+      <c r="I63" s="14">
+        <f t="shared" si="16"/>
+        <v>0.8455970149253732</v>
+      </c>
+      <c r="J63" s="14">
+        <f>SUM(J39,J46,J53,J60)/(55+44+75+94)</f>
+        <v>0.90958955223880611</v>
+      </c>
+      <c r="K63" s="14">
+        <f>SUM(K39,K46,K53,K60)/(19+61+32+28)</f>
+        <v>0.71249999999999991</v>
+      </c>
+      <c r="L63" s="14">
+        <f t="shared" ref="L63:M63" si="17">SUM(L39,L46,L53,L60)/(19+61+32+28)</f>
+        <v>0.76157142857142845</v>
+      </c>
+      <c r="M63" s="14">
+        <f t="shared" si="17"/>
+        <v>0.71928571428571431</v>
+      </c>
+      <c r="N63" s="14">
+        <f>SUM(N39,N46,N53,N60)/(42+23+54+68)</f>
+        <v>0.88775401069518711</v>
+      </c>
+      <c r="O63" s="14">
+        <f t="shared" ref="O63:P63" si="18">SUM(O39,O46,O53,O60)/(42+23+54+68)</f>
+        <v>0.54518716577540105</v>
+      </c>
+      <c r="P63" s="14">
+        <f t="shared" si="18"/>
+        <v>0.69593582887700545</v>
+      </c>
+      <c r="Q63" s="14">
+        <f>SUM(Q39,Q46,Q53,Q60)/(6+40+11+2)</f>
+        <v>0.85508474576271165</v>
+      </c>
+      <c r="R63" s="14">
+        <f t="shared" ref="R63:S63" si="19">SUM(R39,R46,R53,R60)/(6+40+11+2)</f>
+        <v>0.93237288135593221</v>
+      </c>
+      <c r="S63" s="14">
+        <f t="shared" si="19"/>
+        <v>0.89101694915254248</v>
+      </c>
+      <c r="T63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H64" s="14">
+        <f>AVERAGE(H38,H45,H52,H59)</f>
+        <v>0.995</v>
+      </c>
+      <c r="I64" s="14">
+        <f>AVERAGE(I36,I44,I52,I59)</f>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="J64" s="14">
+        <f>AVERAGE(J36,J44,J52,J59)</f>
+        <v>0.89750000000000008</v>
+      </c>
+      <c r="K64" s="14">
+        <f>AVERAGE(K36,K44,K52,K59)</f>
+        <v>0.65</v>
+      </c>
+      <c r="L64" s="14">
+        <f>AVERAGE(L38,L44,L52,L59)</f>
+        <v>0.72249999999999992</v>
+      </c>
+      <c r="M64" s="14">
+        <f>AVERAGE(M38,M44,M52,M59)</f>
+        <v>0.65749999999999997</v>
+      </c>
+      <c r="N64" s="14">
+        <f>AVERAGE(N36,N45,N51,N58)</f>
+        <v>0.86</v>
+      </c>
+      <c r="O64" s="14">
+        <f>AVERAGE(O36,O44,O52,O59)</f>
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="P64" s="14">
+        <f>AVERAGE(P37,P44,P52,P59)</f>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="Q64" s="14">
+        <f>AVERAGE(Q38,Q45,Q52,Q59)</f>
+        <v>0.66749999999999998</v>
+      </c>
+      <c r="R64" s="14">
+        <f>AVERAGE(R38,R45,R52,R59)</f>
+        <v>0.84</v>
+      </c>
+      <c r="S64" s="14">
+        <f>AVERAGE(S38,S45,S52,S59)</f>
+        <v>0.71500000000000008</v>
+      </c>
+      <c r="T64" t="s">
         <v>45</v>
-      </c>
-      <c r="H58">
-        <f>AVERAGE(H36:H38,H43,H44,H49,H50,H55,H56)</f>
-        <v>0.98888888888888893</v>
-      </c>
-      <c r="I58">
-        <f>AVERAGE(I36:I38,I43,I44,I49,I50,I55,I56)</f>
-        <v>0.75777777777777766</v>
-      </c>
-      <c r="J58">
-        <f>AVERAGE(J36:J38,J43,J44,J49,J50,J55,J56)</f>
-        <v>0.85222222222222233</v>
-      </c>
-      <c r="K58">
-        <f>AVERAGE(K36:K38,K43,K44,K49,K50,K55,K56)</f>
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="L58">
-        <f>AVERAGE(L36:L38,L43,L44,L49,L50,L55,L56)</f>
-        <v>0.70222222222222219</v>
-      </c>
-      <c r="M58">
-        <f>AVERAGE(M36:M38,M43,M44,M49,M50,M55,M56)</f>
-        <v>0.62555555555555553</v>
-      </c>
-      <c r="N58">
-        <f>AVERAGE(N36:N38,N43,N44,N49,N50,N55,N56)</f>
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="O58">
-        <f>AVERAGE(O36:O38,O43,O44,O49,O50,O55,O56)</f>
-        <v>0.46555555555555561</v>
-      </c>
-      <c r="P58">
-        <f>AVERAGE(P36:P38,P43,P44,P49,P50,P55,P56)</f>
-        <v>0.56555555555555559</v>
-      </c>
-      <c r="Q58">
-        <f>AVERAGE(Q36:Q38,Q43,Q44,Q49,Q50,Q55,Q56)</f>
-        <v>0.55222222222222217</v>
-      </c>
-      <c r="R58">
-        <f>AVERAGE(R36:R38,R43,R44,R49,R50,R55,R56)</f>
-        <v>0.79222222222222227</v>
-      </c>
-      <c r="S58">
-        <f>AVERAGE(S36:S38,S43,S44,S49,S50,S55,S56)</f>
-        <v>0.62333333333333329</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="Q56:S56"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="Q49:S49"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
